--- a/pred_ohlcv/54_21/2019-10-31 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ENJ ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>6732.382200000007</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>7592.382200000007</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7592.382200000007</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4992.560700000007</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4992.560700000007</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4924.510700000007</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1947.161699999993</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1947.161699999993</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11731.04859999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11731.04859999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-283947.6649325236</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-301107.6649325236</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-292317.6438325236</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-294151.6379325236</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-293232.1379325236</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-293434.8068325236</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ENJ ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>6732.382200000007</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>7592.382200000007</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>7592.382200000007</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7592.382200000007</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4992.560700000007</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4992.560700000007</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1947.161699999993</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11731.04859999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11731.04859999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>74412.27280000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>80885.906</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>71997.6058</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>71997.6058</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-292317.6438325236</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-293232.1379325236</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-293434.8068325236</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
